--- a/data/trans_orig/VUL_ANS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en País Vasco</t>
+          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en Andalucia</t>
+          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en C.Valenciana</t>
+          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_ANS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5237</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5046</t>
+          <t>4788</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7449</t>
+          <t>7087</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8494</t>
+          <t>8699</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11546</t>
+          <t>11779</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>141745</t>
+          <t>158305</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>139955</t>
+          <t>156369</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>143118</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>138158</t>
+          <t>164071</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>135755</t>
+          <t>161772</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>139690</t>
+          <t>165646</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>279902</t>
+          <t>322376</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>276850</t>
+          <t>319296</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>282119</t>
+          <t>324540</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>98,03%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,69 +1078,69 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1910</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>5303</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4917</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
           <t>5,95%</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>4174</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>2678</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>6248</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>42</t>
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7055</t>
+          <t>8137</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9776</t>
+          <t>11185</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1191,67 +1191,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78191</t>
+          <t>87048</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>76246</t>
+          <t>84965</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79517</t>
+          <t>88358</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>94,13%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>97,88%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>117621</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>115245</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>119488</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95,99%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>94,05%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>98,08%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>646</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>104779</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>102705</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>106275</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>96,17%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>94,27%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>182970</t>
+          <t>204669</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>180249</t>
+          <t>201621</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>184997</t>
+          <t>206828</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,19%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5399</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>7081</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4118</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6026</t>
+          <t>6985</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9517</t>
+          <t>9554</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7193</t>
+          <t>7321</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12635</t>
+          <t>12423</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>157371</t>
+          <t>148574</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>155025</t>
+          <t>146278</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>159162</t>
+          <t>150192</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59074</t>
+          <t>57166</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57166</t>
+          <t>54950</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60498</t>
+          <t>58832</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>216445</t>
+          <t>205740</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>213327</t>
+          <t>202871</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>218769</t>
+          <t>207973</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>96,6%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7851</t>
+          <t>7587</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5697</t>
+          <t>5418</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10981</t>
+          <t>10181</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11237</t>
+          <t>10626</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8615</t>
+          <t>8205</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14444</t>
+          <t>13770</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>19088</t>
+          <t>18214</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>15662</t>
+          <t>14883</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>23120</t>
+          <t>22283</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>162179</t>
+          <t>162905</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>159049</t>
+          <t>160311</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>164333</t>
+          <t>165074</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>166486</t>
+          <t>172402</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>163279</t>
+          <t>169258</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>169108</t>
+          <t>174823</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>328665</t>
+          <t>335306</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>324633</t>
+          <t>331237</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>332091</t>
+          <t>338637</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,79%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3577</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8478</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6406</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11070</t>
+          <t>11912</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>10359</t>
+          <t>10509</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7894</t>
+          <t>8191</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13457</t>
+          <t>13758</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74458</t>
+          <t>72452</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72763</t>
+          <t>71300</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75490</t>
+          <t>73209</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>124163</t>
+          <t>116084</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>121571</t>
+          <t>113340</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>126235</t>
+          <t>118292</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>198623</t>
+          <t>188536</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>195525</t>
+          <t>185287</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>201088</t>
+          <t>190854</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>95,88%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>828</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8878</t>
+          <t>7854</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5913</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11846</t>
+          <t>10761</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>9251</t>
+          <t>8682</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6711</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>12117</t>
+          <t>11630</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44631</t>
+          <t>54345</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43865</t>
+          <t>52579</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44927</t>
+          <t>54959</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>109025</t>
+          <t>114545</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>106057</t>
+          <t>111638</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>111229</t>
+          <t>116486</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>153656</t>
+          <t>168889</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>150790</t>
+          <t>165941</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>156196</t>
+          <t>171454</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>96,56%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21833</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17793</t>
+          <t>18170</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26602</t>
+          <t>25971</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>41931</t>
+          <t>42123</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36749</t>
+          <t>36911</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>48301</t>
+          <t>47935</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>63764</t>
+          <t>63795</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>56789</t>
+          <t>57206</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>70543</t>
+          <t>70679</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>658575</t>
+          <t>683629</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>653806</t>
+          <t>679330</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>662615</t>
+          <t>687131</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>701685</t>
+          <t>741888</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>695315</t>
+          <t>736076</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>706867</t>
+          <t>747100</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1360261</t>
+          <t>1425517</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1353482</t>
+          <t>1418633</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1367236</t>
+          <t>1432106</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7213</t>
+          <t>7704</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22601</t>
+          <t>22103</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12311</t>
+          <t>13148</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27646</t>
+          <t>28576</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23052</t>
+          <t>23863</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>44892</t>
+          <t>44586</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>342206</t>
+          <t>342704</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>357594</t>
+          <t>357103</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>271255</t>
+          <t>270325</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>286590</t>
+          <t>285753</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>618817</t>
+          <t>619123</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>640657</t>
+          <t>639846</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>96,4%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9610</t>
+          <t>9350</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26090</t>
+          <t>25924</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14794</t>
+          <t>14790</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31985</t>
+          <t>31975</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>28104</t>
+          <t>27753</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>49849</t>
+          <t>50829</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>297957</t>
+          <t>298123</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>314437</t>
+          <t>314697</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>228096</t>
+          <t>228106</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>245287</t>
+          <t>245291</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>534279</t>
+          <t>533299</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>556024</t>
+          <t>556375</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,25%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22100</t>
+          <t>22002</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7001</t>
+          <t>7625</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17918</t>
+          <t>17152</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6468</t>
+          <t>6587</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41097</t>
+          <t>39715</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>452605</t>
+          <t>452703</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>473394</t>
+          <t>472845</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>79646</t>
+          <t>80412</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90563</t>
+          <t>89939</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>531172</t>
+          <t>532554</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>565801</t>
+          <t>565682</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,85%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14001</t>
+          <t>14210</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32966</t>
+          <t>34473</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16328</t>
+          <t>16351</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>68616</t>
+          <t>68494</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36934</t>
+          <t>38103</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>85744</t>
+          <t>86272</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>503189</t>
+          <t>501682</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>522154</t>
+          <t>521945</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>567817</t>
+          <t>567939</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>620105</t>
+          <t>620082</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1086844</t>
+          <t>1086316</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1135654</t>
+          <t>1134485</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>96,75%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3091</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15774</t>
+          <t>15914</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22498</t>
+          <t>21274</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>54078</t>
+          <t>52334</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31246</t>
+          <t>31361</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>61227</t>
+          <t>61922</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>195448</t>
+          <t>195308</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>208131</t>
+          <t>208018</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>369871</t>
+          <t>371615</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>401451</t>
+          <t>402675</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>573944</t>
+          <t>573249</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>603925</t>
+          <t>603810</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>720</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18009</t>
+          <t>19643</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>37656</t>
+          <t>39154</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>64381</t>
+          <t>65411</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>43039</t>
+          <t>42140</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>75029</t>
+          <t>73640</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,2%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>148752</t>
+          <t>147118</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165898</t>
+          <t>166041</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>88,22%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>426128</t>
+          <t>425098</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>452853</t>
+          <t>451355</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>86,66%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>582241</t>
+          <t>583630</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>614231</t>
+          <t>615130</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,59%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>49584</t>
+          <t>48978</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>97236</t>
+          <t>97633</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>135220</t>
+          <t>129376</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>218292</t>
+          <t>216207</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>203499</t>
+          <t>205285</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>297972</t>
+          <t>304388</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1980462</t>
+          <t>1980065</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2028114</t>
+          <t>2028720</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1989144</t>
+          <t>1991229</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2072216</t>
+          <t>2078060</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3987162</t>
+          <t>3980746</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4081635</t>
+          <t>4079849</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>95,21%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_ANS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,37 +730,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3911</t>
+          <t>13691</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>22581</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,67 +770,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4788</t>
+          <t>22420</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>15435</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7087</t>
+          <t>33044</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8699</t>
+          <t>36111</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>26167</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11779</t>
+          <t>48805</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>158305</t>
+          <t>379645</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>156369</t>
+          <t>370755</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>385543</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>426</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>164071</t>
+          <t>305206</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>161772</t>
+          <t>294582</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>165646</t>
+          <t>312191</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1682</t>
+          <t>810</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>322376</t>
+          <t>684851</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>319296</t>
+          <t>672157</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>324540</t>
+          <t>694795</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>96,37%</t>
         </is>
       </c>
     </row>
@@ -956,92 +956,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>393336</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>393336</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>393336</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>327626</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>327626</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>327626</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>852</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>880</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>168859</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>168859</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>168859</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>1732</t>
-        </is>
-      </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>720962</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>720962</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>720962</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>17507</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5303</t>
+          <t>27639</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4917</t>
+          <t>22975</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>15788</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7293</t>
+          <t>33330</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8137</t>
+          <t>40481</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>29676</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11185</t>
+          <t>53627</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87048</t>
+          <t>326840</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84965</t>
+          <t>316708</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88358</t>
+          <t>334154</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>363</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>117621</t>
+          <t>263965</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>115245</t>
+          <t>253610</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>119488</t>
+          <t>271152</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>679</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>204669</t>
+          <t>590806</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>201621</t>
+          <t>577660</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>206828</t>
+          <t>601611</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>95,3%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4785</t>
+          <t>10218</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3167</t>
+          <t>5391</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7081</t>
+          <t>19750</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>12931</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>8584</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6985</t>
+          <t>19446</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>7,7%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9554</t>
+          <t>23149</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7321</t>
+          <t>15824</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12423</t>
+          <t>33314</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>8,98%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>148574</t>
+          <t>249470</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>146278</t>
+          <t>239938</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>150192</t>
+          <t>254297</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57166</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54950</t>
+          <t>92040</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58832</t>
+          <t>102902</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
+          <t>88,4%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>82,56%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
           <t>92,3%</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>88,72%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>94,99%</t>
-        </is>
-      </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>393</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>205740</t>
+          <t>348025</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>202871</t>
+          <t>337860</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>207973</t>
+          <t>355350</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>91,02%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>423</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7587</t>
+          <t>25698</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5418</t>
+          <t>16486</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10181</t>
+          <t>40077</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10626</t>
+          <t>47876</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8205</t>
+          <t>37279</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13770</t>
+          <t>60037</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>18214</t>
+          <t>73574</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>59243</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>22283</t>
+          <t>90953</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>539</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>162905</t>
+          <t>584284</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>160311</t>
+          <t>569905</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>165074</t>
+          <t>593496</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>602</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>172402</t>
+          <t>442105</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>169258</t>
+          <t>429944</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>174823</t>
+          <t>452702</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>335306</t>
+          <t>1026388</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>331237</t>
+          <t>1009009</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>338637</t>
+          <t>1040719</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>94,61%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489981</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489981</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489981</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099962</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099962</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099962</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>7672</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>16332</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9168</t>
+          <t>46265</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>36513</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11912</t>
+          <t>57044</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>10509</t>
+          <t>53937</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8191</t>
+          <t>43802</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13758</t>
+          <t>66730</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72452</t>
+          <t>245669</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>71300</t>
+          <t>237009</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73209</t>
+          <t>250067</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>513</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>116084</t>
+          <t>361754</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>113340</t>
+          <t>350975</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>118292</t>
+          <t>371506</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>738</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>188536</t>
+          <t>607424</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>185287</t>
+          <t>594631</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>190854</t>
+          <t>617559</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>93,38%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>18324</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7854</t>
+          <t>54799</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5913</t>
+          <t>43008</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10761</t>
+          <t>71148</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>8682</t>
+          <t>60909</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>46997</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>11630</t>
+          <t>79269</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>11,06%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54345</t>
+          <t>163387</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52579</t>
+          <t>151173</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54959</t>
+          <t>168041</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>630</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>114545</t>
+          <t>492678</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>111638</t>
+          <t>476329</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116486</t>
+          <t>504469</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>704</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>168889</t>
+          <t>656065</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>165941</t>
+          <t>637705</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>171454</t>
+          <t>669977</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
+          <t>88,94%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
           <t>93,45%</t>
-        </is>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>96,56%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>699</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21672</t>
+          <t>80896</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18170</t>
+          <t>63579</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25971</t>
+          <t>103530</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>42123</t>
+          <t>207266</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36911</t>
+          <t>183016</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>47935</t>
+          <t>235590</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>364</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>63795</t>
+          <t>288162</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>57206</t>
+          <t>260553</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>70679</t>
+          <t>326188</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>683629</t>
+          <t>1949295</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>679330</t>
+          <t>1926661</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>687131</t>
+          <t>1966612</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4147</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>741888</t>
+          <t>1964264</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>736076</t>
+          <t>1935940</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>747100</t>
+          <t>1988514</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8008</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1425517</t>
+          <t>3913559</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1418633</t>
+          <t>3875533</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1432106</t>
+          <t>3941168</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>93,8%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2030191</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2030191</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2030191</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2171530</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2171530</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2171530</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4201721</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4201721</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4201721</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13519</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7704</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22103</t>
+          <t>8575</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19403</t>
+          <t>8083</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13148</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28576</t>
+          <t>12983</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>32923</t>
+          <t>11815</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23863</t>
+          <t>7366</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>44586</t>
+          <t>18003</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>351288</t>
+          <t>291791</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>342704</t>
+          <t>286948</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>357103</t>
+          <t>294084</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>454</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>279498</t>
+          <t>268589</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>270325</t>
+          <t>263689</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>285753</t>
+          <t>271977</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>630786</t>
+          <t>560379</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>619123</t>
+          <t>554191</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>639846</t>
+          <t>564828</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>98,71%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>364807</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>364807</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>364807</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>663709</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>663709</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>663709</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9109</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>15991</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>9350</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>25924</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>8,0%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21956</t>
+          <t>8503</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14790</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31975</t>
+          <t>14192</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>37947</t>
+          <t>13837</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>27753</t>
+          <t>9811</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>50829</t>
+          <t>21239</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>308056</t>
+          <t>190106</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>298123</t>
+          <t>186331</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>314697</t>
+          <t>192860</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>238125</t>
+          <t>222053</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>228106</t>
+          <t>216364</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>245291</t>
+          <t>225317</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>709</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>546181</t>
+          <t>412159</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>533299</t>
+          <t>404757</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>556375</t>
+          <t>416185</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>738</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8834</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22002</t>
+          <t>8432</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6624</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3569</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11922</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>11445</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7625</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17152</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>7,82%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>17,58%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>20279</t>
+          <t>10912</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6587</t>
+          <t>6578</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39715</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>465871</t>
+          <t>176048</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>452703</t>
+          <t>171904</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>472845</t>
+          <t>178290</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86119</t>
+          <t>76176</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80412</t>
+          <t>70878</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89939</t>
+          <t>79231</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>481</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>551990</t>
+          <t>252225</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>532554</t>
+          <t>246322</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>565682</t>
+          <t>256559</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>97,5%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>180336</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>180336</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>180336</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>263137</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>263137</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>263137</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22206</t>
+          <t>7819</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14210</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34473</t>
+          <t>12752</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42724</t>
+          <t>17899</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16351</t>
+          <t>12542</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>68494</t>
+          <t>25835</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>64930</t>
+          <t>25718</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>38103</t>
+          <t>18562</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>86272</t>
+          <t>35141</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>513949</t>
+          <t>300614</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>501682</t>
+          <t>295681</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>521945</t>
+          <t>304051</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>524</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>593709</t>
+          <t>298479</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>567939</t>
+          <t>290543</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>620082</t>
+          <t>303836</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1107658</t>
+          <t>599093</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1086316</t>
+          <t>589670</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1134485</t>
+          <t>606249</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>97,03%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>556</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636433</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636433</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636433</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172588</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172588</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172588</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7507</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15914</t>
+          <t>8862</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>40542</t>
+          <t>7691</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21274</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52334</t>
+          <t>13161</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>48049</t>
+          <t>12547</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31361</t>
+          <t>7737</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>61922</t>
+          <t>19264</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>203715</t>
+          <t>146038</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>195308</t>
+          <t>142031</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>208018</t>
+          <t>148861</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>252</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>383407</t>
+          <t>147377</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>371615</t>
+          <t>141907</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>402675</t>
+          <t>150732</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>505</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>587122</t>
+          <t>293415</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>573249</t>
+          <t>286698</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>603810</t>
+          <t>298225</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19643</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49765</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39154</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>65411</t>
+          <t>4854</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>55544</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>42140</t>
+          <t>202</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>73640</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>22,68%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>160982</t>
+          <t>8954</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>147118</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166041</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,22%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>440744</t>
+          <t>10307</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>425098</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>451355</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>601726</t>
+          <t>19261</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>583630</t>
+          <t>16069</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>615130</t>
+          <t>20580</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>99,03%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>73836</t>
+          <t>26422</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>48978</t>
+          <t>19975</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>97633</t>
+          <t>35176</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>185836</t>
+          <t>49927</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129376</t>
+          <t>39895</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>216207</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>144</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>259672</t>
+          <t>76348</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>205285</t>
+          <t>64385</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>304388</t>
+          <t>91127</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2003862</t>
+          <t>1113551</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1980065</t>
+          <t>1104797</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2028720</t>
+          <t>1119998</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>1766</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2021600</t>
+          <t>1022981</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1991229</t>
+          <t>1010973</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2078060</t>
+          <t>1033013</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4465</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4025462</t>
+          <t>2136532</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3980746</t>
+          <t>2121753</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4079849</t>
+          <t>2148495</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>97,09%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2077698</t>
+          <t>1139973</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2077698</t>
+          <t>1139973</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2077698</t>
+          <t>1139973</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207436</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207436</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207436</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4285134</t>
+          <t>2212880</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4285134</t>
+          <t>2212880</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4285134</t>
+          <t>2212880</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
+          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3732</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8575</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8083</t>
+          <t>4788</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12983</t>
+          <t>7087</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>11815</t>
+          <t>8699</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7366</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>18003</t>
+          <t>11779</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>831</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>291791</t>
+          <t>158305</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>286948</t>
+          <t>156369</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>294084</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>851</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>268589</t>
+          <t>164071</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>263689</t>
+          <t>161772</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>271977</t>
+          <t>165646</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>560379</t>
+          <t>322376</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>554191</t>
+          <t>319296</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>564828</t>
+          <t>324540</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,03%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>1910</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9109</t>
+          <t>5303</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8503</t>
+          <t>4917</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14192</t>
+          <t>7293</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>13837</t>
+          <t>8137</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9811</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21239</t>
+          <t>11185</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>477</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>190106</t>
+          <t>87048</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>186331</t>
+          <t>84965</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>192860</t>
+          <t>88358</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>646</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>222053</t>
+          <t>117621</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>216364</t>
+          <t>115245</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>225317</t>
+          <t>119488</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>412159</t>
+          <t>204669</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>404757</t>
+          <t>201621</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>416185</t>
+          <t>206828</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,19%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>672</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8432</t>
+          <t>7081</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6624</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11922</t>
+          <t>6985</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>10912</t>
+          <t>9554</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>7321</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16815</t>
+          <t>12423</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>890</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>176048</t>
+          <t>148574</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>171904</t>
+          <t>146278</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>178290</t>
+          <t>150192</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>340</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76176</t>
+          <t>57166</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>70878</t>
+          <t>54950</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79231</t>
+          <t>58832</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>252225</t>
+          <t>205740</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>246322</t>
+          <t>202871</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>256559</t>
+          <t>207973</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>96,6%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>918</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180336</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180336</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180336</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263137</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263137</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263137</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7819</t>
+          <t>7587</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4382</t>
+          <t>5418</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12752</t>
+          <t>10181</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17899</t>
+          <t>10626</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12542</t>
+          <t>8205</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25835</t>
+          <t>13770</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>109</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25718</t>
+          <t>18214</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18562</t>
+          <t>14883</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>35141</t>
+          <t>22283</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>961</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>300614</t>
+          <t>162905</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>295681</t>
+          <t>160311</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>304051</t>
+          <t>165074</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>976</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>298479</t>
+          <t>172402</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>290543</t>
+          <t>169258</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>303836</t>
+          <t>174823</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>599093</t>
+          <t>335306</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>589670</t>
+          <t>331237</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>606249</t>
+          <t>338637</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>95,79%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8862</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7691</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13161</t>
+          <t>11912</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>12547</t>
+          <t>10509</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7737</t>
+          <t>8191</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19264</t>
+          <t>13758</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>439</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>146038</t>
+          <t>72452</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>142031</t>
+          <t>71300</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>148861</t>
+          <t>73209</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>147377</t>
+          <t>116084</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>141907</t>
+          <t>113340</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>150732</t>
+          <t>118292</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>293415</t>
+          <t>188536</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>286698</t>
+          <t>185287</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>298225</t>
+          <t>190854</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>95,88%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>744</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>828</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>7854</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5913</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>10761</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>8682</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>11630</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8954</t>
+          <t>54345</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>52579</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>54959</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>643</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10307</t>
+          <t>114545</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>111638</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>116486</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>906</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>19261</t>
+          <t>168889</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>16069</t>
+          <t>165941</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20580</t>
+          <t>171454</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>96,56%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>957</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26422</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19975</t>
+          <t>18170</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>35176</t>
+          <t>25971</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>49927</t>
+          <t>42123</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>39895</t>
+          <t>36911</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>47935</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>369</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>76348</t>
+          <t>63795</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>64385</t>
+          <t>57206</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>91127</t>
+          <t>70679</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1113551</t>
+          <t>683629</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1104797</t>
+          <t>679330</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1119998</t>
+          <t>687131</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1022981</t>
+          <t>741888</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1010973</t>
+          <t>736076</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1033013</t>
+          <t>747100</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3777</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2136532</t>
+          <t>1425517</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2121753</t>
+          <t>1418633</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2148495</t>
+          <t>1432106</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1139973</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1139973</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1139973</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2212880</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2212880</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2212880</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
